--- a/dataanalysis/data/predictions/1000/08010955_0957.xlsx
+++ b/dataanalysis/data/predictions/1000/08010955_0957.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-01</t>
   </si>
   <si>
@@ -170,9 +173,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -530,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,19 +639,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300009</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>4.05</v>
@@ -669,7 +672,7 @@
         <v>166669.06</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -710,8 +713,23 @@
       <c r="W2">
         <v>-0.55</v>
       </c>
+      <c r="X2">
+        <v>-1.01</v>
+      </c>
+      <c r="Y2">
+        <v>12.07</v>
+      </c>
+      <c r="Z2">
+        <v>-4.21</v>
+      </c>
       <c r="AC2" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -719,22 +737,25 @@
       <c r="AG2">
         <v>6.870997905731201</v>
       </c>
-      <c r="AH2" t="s">
-        <v>52</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300436</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0.45</v>
@@ -752,7 +773,7 @@
         <v>71911.24000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>22</v>
@@ -793,8 +814,23 @@
       <c r="W3">
         <v>-0.17</v>
       </c>
+      <c r="X3">
+        <v>18.18</v>
+      </c>
+      <c r="Y3">
+        <v>122.06</v>
+      </c>
+      <c r="Z3">
+        <v>6.12</v>
+      </c>
       <c r="AC3" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -802,22 +838,25 @@
       <c r="AG3">
         <v>0.9544083476066589</v>
       </c>
-      <c r="AH3" t="s">
-        <v>52</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300528</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-1.08</v>
@@ -835,7 +874,7 @@
         <v>66264.88</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -876,8 +915,23 @@
       <c r="W4">
         <v>-0.36</v>
       </c>
+      <c r="X4">
+        <v>-11.33</v>
+      </c>
+      <c r="Y4">
+        <v>20.89</v>
+      </c>
+      <c r="Z4">
+        <v>-9.06</v>
+      </c>
       <c r="AC4" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -885,22 +939,25 @@
       <c r="AG4">
         <v>3.26521635055542</v>
       </c>
-      <c r="AH4" t="s">
-        <v>52</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300683</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>3.67</v>
@@ -918,7 +975,7 @@
         <v>31881.96</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -959,8 +1016,23 @@
       <c r="W5">
         <v>0.45</v>
       </c>
+      <c r="X5">
+        <v>-2.37</v>
+      </c>
+      <c r="Y5">
+        <v>60.19</v>
+      </c>
+      <c r="Z5">
+        <v>3.07</v>
+      </c>
       <c r="AC5" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -968,22 +1040,25 @@
       <c r="AG5">
         <v>2.607996702194214</v>
       </c>
-      <c r="AH5" t="s">
-        <v>52</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>301200</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.31</v>
@@ -1001,7 +1076,7 @@
         <v>27156.83</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1042,8 +1117,23 @@
       <c r="W6">
         <v>0.29</v>
       </c>
+      <c r="X6">
+        <v>-0.83</v>
+      </c>
+      <c r="Y6">
+        <v>73.88</v>
+      </c>
+      <c r="Z6">
+        <v>-4.97</v>
+      </c>
       <c r="AC6" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1051,22 +1141,25 @@
       <c r="AG6">
         <v>1.994520664215088</v>
       </c>
-      <c r="AH6" t="s">
-        <v>52</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>301389</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>15.26</v>
@@ -1084,7 +1177,7 @@
         <v>61331.11</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7">
         <v>19</v>
@@ -1125,8 +1218,23 @@
       <c r="W7">
         <v>0.35</v>
       </c>
+      <c r="X7">
+        <v>20</v>
+      </c>
+      <c r="Y7">
+        <v>51.72</v>
+      </c>
+      <c r="Z7">
+        <v>16.67</v>
+      </c>
       <c r="AC7" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1134,22 +1242,25 @@
       <c r="AG7">
         <v>-0.2276539206504822</v>
       </c>
-      <c r="AH7" t="s">
-        <v>52</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>301489</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>4.19</v>
@@ -1167,7 +1278,7 @@
         <v>69345.84</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1208,8 +1319,23 @@
       <c r="W8">
         <v>-0.68</v>
       </c>
+      <c r="X8">
+        <v>12.02</v>
+      </c>
+      <c r="Y8">
+        <v>126</v>
+      </c>
+      <c r="Z8">
+        <v>16.67</v>
+      </c>
       <c r="AC8" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1217,22 +1343,25 @@
       <c r="AG8">
         <v>1.220456600189209</v>
       </c>
-      <c r="AH8" t="s">
-        <v>52</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>688110</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-5.28</v>
@@ -1250,7 +1379,7 @@
         <v>296941.85</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1291,8 +1420,23 @@
       <c r="W9">
         <v>-1.21</v>
       </c>
+      <c r="X9">
+        <v>20</v>
+      </c>
+      <c r="Y9">
+        <v>68.88</v>
+      </c>
+      <c r="Z9">
+        <v>12.29</v>
+      </c>
       <c r="AC9" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1300,22 +1444,25 @@
       <c r="AG9">
         <v>2.421762228012085</v>
       </c>
-      <c r="AH9" t="s">
-        <v>52</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>688189</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>6.59</v>
@@ -1333,7 +1480,7 @@
         <v>55896.42</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1374,8 +1521,23 @@
       <c r="W10">
         <v>-1.03</v>
       </c>
+      <c r="X10">
+        <v>-1.82</v>
+      </c>
+      <c r="Y10">
+        <v>17.28</v>
+      </c>
+      <c r="Z10">
+        <v>-5.42</v>
+      </c>
       <c r="AC10" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1383,8 +1545,11 @@
       <c r="AG10">
         <v>3.991715669631958</v>
       </c>
-      <c r="AH10" t="s">
-        <v>52</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
